--- a/CORE-593_BlueRockCCLFfieldAnalysis.xlsx
+++ b/CORE-593_BlueRockCCLFfieldAnalysis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="168">
   <si>
     <t>Bluerock Excel Fields</t>
   </si>
@@ -190,9 +190,6 @@
     <t>CJ Staging Table Fields</t>
   </si>
   <si>
-    <t>Match</t>
-  </si>
-  <si>
     <t>CMS Jan '22 transition fields (to:transition old, tn: transition new) or new (n)</t>
   </si>
   <si>
@@ -506,6 +503,39 @@
   </si>
   <si>
     <t>BENE_RRB_NUM</t>
+  </si>
+  <si>
+    <t>downstream ODS issue</t>
+  </si>
+  <si>
+    <t>all null</t>
+  </si>
+  <si>
+    <t>field contains all NULLs but used in ODS hash and NK natural key</t>
+  </si>
+  <si>
+    <t>field contains all NULLs but used in ODS hash</t>
+  </si>
+  <si>
+    <t>don’t see a leading alpha char.. Are these all icd9?</t>
+  </si>
+  <si>
+    <t>are these icd-9? There's no leading alpha char except for V and E</t>
+  </si>
+  <si>
+    <t>do we use this?.. Might not need this</t>
+  </si>
+  <si>
+    <t>all null but might not need</t>
+  </si>
+  <si>
+    <t>our State codes are 2 char alpha, client has numeric'</t>
+  </si>
+  <si>
+    <t>all null but we might not need it</t>
+  </si>
+  <si>
+    <t>Col Name Match</t>
   </si>
 </sst>
 </file>
@@ -528,12 +558,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -548,10 +590,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,32 +880,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E51"/>
+  <dimension ref="B1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -866,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -878,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -890,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -905,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -917,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -929,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -941,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -953,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -965,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -977,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1048,8 +1106,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1084,8 +1143,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1097,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1112,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1127,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1142,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1156,8 +1216,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1168,8 +1229,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1180,8 +1242,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1193,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1241,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1253,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1265,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1277,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1289,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1300,8 +1363,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1312,8 +1376,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1325,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1337,10 +1402,14 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1352,10 +1421,14 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1367,10 +1440,14 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1382,10 +1459,14 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1397,10 +1478,14 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -1409,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>45</v>
       </c>
@@ -1418,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>46</v>
       </c>
@@ -1427,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>47</v>
       </c>
@@ -1465,37 +1550,47 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -1503,8 +1598,9 @@
         <f>IFERROR(MATCH(B2,C2),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1515,20 +1611,22 @@
         <f t="shared" ref="D3:D32" si="0">IFERROR(MATCH(B3,C3),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1539,8 +1637,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1551,8 +1650,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1564,67 +1664,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1636,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1648,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1675,118 +1776,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -1795,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>45</v>
       </c>
@@ -1804,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>46</v>
       </c>
@@ -1813,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>47</v>
       </c>
@@ -1822,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>48</v>
       </c>
@@ -1831,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>49</v>
       </c>
@@ -1840,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>50</v>
       </c>
@@ -1856,32 +1962,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -1890,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1914,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1938,43 +2053,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1998,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2037,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -2049,10 +2164,14 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -2122,33 +2241,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E23"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -2157,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2169,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2205,43 +2334,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2253,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2265,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -2292,19 +2424,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -2316,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2328,7 +2460,11 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -2401,32 +2537,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E60"/>
+  <dimension ref="B1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -2435,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2447,19 +2592,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2483,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2507,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2519,190 +2664,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2713,8 +2861,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2725,8 +2874,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2737,20 +2887,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2762,199 +2913,224 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C37" t="s">
         <v>89</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>91</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>92</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>94</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>96</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>97</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
       <c r="D45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G45" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
@@ -2966,97 +3142,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>99</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>100</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>101</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>102</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>103</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>104</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>105</v>
       </c>
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+      <c r="G53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -3065,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -3074,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>46</v>
       </c>
@@ -3083,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -3092,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>48</v>
       </c>
@@ -3101,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -3110,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>50</v>
       </c>
@@ -3121,38 +3314,48 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E36"/>
+  <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -3161,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3173,19 +3376,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3197,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3209,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3221,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3245,145 +3448,149 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3394,8 +3601,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -3406,8 +3614,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
@@ -3418,20 +3627,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -3443,31 +3653,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
@@ -3479,25 +3689,33 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -3506,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>45</v>
       </c>
@@ -3515,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -3567,32 +3785,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E30"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -3601,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3613,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3625,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3637,19 +3866,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3660,128 +3889,132 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>112</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>113</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>114</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>115</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>116</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>117</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3792,8 +4025,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -3804,8 +4038,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -3816,44 +4051,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>119</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>120</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
-      </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>44</v>
       </c>
@@ -3862,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -3871,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -3880,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -3889,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -3898,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>49</v>
       </c>
@@ -3907,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -3923,32 +4159,41 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E40"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -3957,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3981,355 +4226,374 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>123</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>125</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>126</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>127</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>128</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>129</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>130</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>131</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>132</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>133</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>134</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>136</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>140</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>141</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>142</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>143</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>144</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>145</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>146</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>147</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>148</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>149</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>150</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" t="s">
-        <v>151</v>
-      </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -4338,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>45</v>
       </c>
@@ -4347,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>46</v>
       </c>
@@ -4356,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>47</v>
       </c>
@@ -4365,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>48</v>
       </c>
@@ -4374,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>49</v>
       </c>
@@ -4383,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>50</v>
       </c>
@@ -4394,38 +4658,47 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -4434,79 +4707,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D15" si="0">IFERROR(MATCH(B3,C3),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>154</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>156</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>157</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -4515,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -4524,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>46</v>
       </c>
@@ -4533,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>47</v>
       </c>
@@ -4542,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -4551,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>49</v>
       </c>
@@ -4560,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>50</v>
       </c>
